--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409944.935487465</v>
+        <v>3408057.353971062</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>185.8644309199425</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>9.461970681989442</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>139.4363092953499</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>162.8990990825394</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>64.34226368086765</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>191.9978963829635</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>76.48464164091949</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>263.3823171366802</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>105.3839936249375</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.726528083595482</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>101.2898147863544</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>111.9679966130648</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>173.5954779282456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>143.0309728090496</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>123.3771255379758</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>216.7854485378672</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>248.7090763400661</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.84942852843557</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6793845477821</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2953,19 +2953,19 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>57.67344900373705</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>80.40192578519492</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>55.21598883571491</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2509.407241604139</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2509.407241604139</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2509.407241604139</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2509.407241604139</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2135.941483343059</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022959</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>371.9535023530925</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.0450565669177</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>386.0450565669177</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>386.0450565669177</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>386.0450565669177</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U7" t="n">
-        <v>386.0450565669177</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>386.0450565669177</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>386.0450565669177</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>386.0450565669177</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.0450565669177</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.304160219349</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1072.089755217884</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2590.700612609195</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2372.065945581257</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2118.304160219349</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.304160219349</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2118.304160219349</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.304160219349</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>2118.304160219349</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,7 +5030,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5045,31 +5045,31 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>709.4512536188986</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>420.034083581938</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>420.034083581938</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>420.034083581938</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5434,13 +5434,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,25 +5458,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5671,10 +5671,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,22 +5698,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1274.742180641884</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247859</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V19" t="n">
-        <v>499.6581354340557</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>499.6581354340557</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
         <v>278.8655562905255</v>
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>388.5827690683475</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>388.5827690683475</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,7 +5908,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688071</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="W22" t="n">
-        <v>895.8230080122524</v>
+        <v>609.3753482118776</v>
       </c>
       <c r="X22" t="n">
-        <v>667.8334571142351</v>
+        <v>609.3753482118776</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>388.5827690683475</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,10 +6163,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
@@ -6178,19 +6178,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488387</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="V25" t="n">
-        <v>679.8173177055387</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="W25" t="n">
-        <v>390.400147668578</v>
+        <v>647.5712290164487</v>
       </c>
       <c r="X25" t="n">
-        <v>390.400147668578</v>
+        <v>647.5712290164487</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.400147668578</v>
+        <v>426.7786498729185</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>328.8766843813095</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>328.8766843813095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>328.8766843813095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>328.8766843813095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>328.8766843813095</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7013627011299</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>160.7013627011299</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>923.2788065678494</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550792</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3177283550792</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X28" t="n">
-        <v>731.3177283550792</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.5251492115491</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6558,7 +6558,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.564143816378</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698419</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388769</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441931</v>
+        <v>234.2048840066594</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>234.2048840066594</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,13 +6628,13 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652469</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652469</v>
+        <v>565.4200295030868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,28 +6686,28 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,16 +6935,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619129</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525404</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706263073</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1054520983418</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338568</v>
+        <v>185.2331835502366</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>85.95281337053844</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>78.54216539558237</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>5.584500209162708</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>163.1458727986152</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.35219478596085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>37.81392199652493</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.56981693583641</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>24.2414254358211</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>33.55725701427504</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>30.88838604962559</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541052</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541051</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541053</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541052</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869595</v>
+        <v>691597.6334869597</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="P2" t="n">
         <v>697885.5043846408</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007504</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020404</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732794</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732795</v>
-      </c>
       <c r="O4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092334</v>
+        <v>-122858.501609234</v>
       </c>
       <c r="C6" t="n">
+        <v>467109.3776053105</v>
+      </c>
+      <c r="D6" t="n">
         <v>467109.3776053108</v>
       </c>
-      <c r="D6" t="n">
-        <v>467109.3776053106</v>
-      </c>
       <c r="E6" t="n">
-        <v>39685.30747248496</v>
+        <v>39587.84834651268</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.884823409</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234089</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493808</v>
+        <v>564747.8848234089</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493808</v>
+        <v>564747.8848234091</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.1247567878</v>
+        <v>388324.665630816</v>
       </c>
       <c r="K6" t="n">
-        <v>524725.465483687</v>
+        <v>524706.9717457528</v>
       </c>
       <c r="L6" t="n">
-        <v>559491.9728664204</v>
+        <v>559491.972866421</v>
       </c>
       <c r="M6" t="n">
-        <v>435033.8644334505</v>
+        <v>435033.8644334502</v>
       </c>
       <c r="N6" t="n">
-        <v>569834.8796672875</v>
+        <v>569834.8796672876</v>
       </c>
       <c r="O6" t="n">
-        <v>569834.8796672877</v>
+        <v>569834.8796672876</v>
       </c>
       <c r="P6" t="n">
         <v>525672.2743644417</v>
@@ -26713,19 +26713,19 @@
         <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>30.58388943771524</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>60.02815772023337</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>86.27334609368725</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>250.8850709382556</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,22 +27667,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>321.895674975186</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.14764256705536</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>148.5504638171648</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>118.5480529355816</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.03171918403403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.8578157762261</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-2.839431673017436e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35726,28 +35726,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>499.3100716807072</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478582</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477048</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
